--- a/biology/Botanique/Oreille_mésentérique/Oreille_mésentérique.xlsx
+++ b/biology/Botanique/Oreille_mésentérique/Oreille_mésentérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auricularia mesenterica, en français Auriculaire poilu, Oreille mésentérique ou Oreille poilue, est une espèce de champignons du genre Auricularia et de la famille des Auriculariaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est en forme de disque puis ce déformant en grandissant pour prendre l'aspect d'un éventail, attaché directement sur le support large de 1 à 15 cm. La face supérieure est feutrée, hérissée de poils grisâtres pouvant avoir plusieurs couleurs se succédant de manière concentrique, allant du gris au brun en passant par le verdâtre. La face inférieure est plissée, formant des veines ou des rides, pourpre-brun et d'aspect pruineux dû au spores. 
 La chair est gélatineuse quand l'humidité le permet et devient cassante à l’état sec. 
-L'odeur est faible et de saveur douce[1],[2],[3]. 
+L'odeur est faible et de saveur douce. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit sur bois mort (saprophyte) ou vivant (parasite), de feuillus principalement ormes, hêtres et érables. Il provoque une pourriture blanche très active[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit sur bois mort (saprophyte) ou vivant (parasite), de feuillus principalement ormes, hêtres et érables. Il provoque une pourriture blanche très active.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est sans intérêt car sa chair est coriace et insipide. 
-Il fait l'objet de recherches comme source d’antioxydant[5].
+Il fait l'objet de recherches comme source d’antioxydant.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des variétés selon GBIF       (3 mai 2021)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des variétés selon GBIF       (3 mai 2021) :
 Auricularia mesenterica var. mesenterica
 Auricularia mesenterica var. pusio (Dicks.) Fr.</t>
         </is>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oreille_m%C3%A9sent%C3%A9rique</t>
+          <t>Oreille_mésentérique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,12 +659,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Auricularia mesenterica (Dicks.) Pers.[6].
-L'espèce a été initialement classée dans le genre Helvella sous le basionyme Helvella mesenterica Dicks.[6].
-Ce taxon porte en français les noms vernaculaires ou nomalisés suivants : auriculaire poilu, oreille mésentérique, oreille poilue[7].
-Auricularia mesenterica a pour synonymes[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Auricularia mesenterica (Dicks.) Pers..
+L'espèce a été initialement classée dans le genre Helvella sous le basionyme Helvella mesenterica Dicks..
+Ce taxon porte en français les noms vernaculaires ou nomalisés suivants : auriculaire poilu, oreille mésentérique, oreille poilue.
+Auricularia mesenterica a pour synonymes :
 Auricularia corrugata Sowerby
 Auricularia lobata Sommerf.
 Auricularia mesenterica (Dicks.) Fr.
